--- a/Data/Bilançolar/ATEKS.xlsx
+++ b/Data/Bilançolar/ATEKS.xlsx
@@ -11930,7 +11930,7 @@
         <v>4693394</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>4693394</v>
       </c>
       <c r="D66" t="n">
         <v>4693394</v>
@@ -12455,7 +12455,7 @@
         <v>374723227</v>
       </c>
       <c r="C69" t="n">
-        <v>388088564</v>
+        <v>383395170</v>
       </c>
       <c r="D69" t="n">
         <v>384992283</v>
@@ -17355,7 +17355,7 @@
         <v>-7652033</v>
       </c>
       <c r="C97" t="n">
-        <v>-13166811</v>
+        <v>-13166813</v>
       </c>
       <c r="D97" t="n">
         <v>-74256778</v>
@@ -17705,7 +17705,7 @@
         <v>-5128339</v>
       </c>
       <c r="C99" t="n">
-        <v>6303880</v>
+        <v>6303878</v>
       </c>
       <c r="D99" t="n">
         <v>138504576</v>
@@ -18580,7 +18580,7 @@
         <v>-3508724</v>
       </c>
       <c r="C104" t="n">
-        <v>5319736</v>
+        <v>5319734</v>
       </c>
       <c r="D104" t="n">
         <v>133236150</v>
@@ -19105,7 +19105,7 @@
         <v>-3508724</v>
       </c>
       <c r="C107" t="n">
-        <v>5319736</v>
+        <v>5319734</v>
       </c>
       <c r="D107" t="n">
         <v>133236150</v>
@@ -19630,7 +19630,7 @@
         <v>-3859512</v>
       </c>
       <c r="C110" t="n">
-        <v>5194372</v>
+        <v>5194370</v>
       </c>
       <c r="D110" t="n">
         <v>133565183</v>
@@ -20855,7 +20855,7 @@
         <v>-7652033</v>
       </c>
       <c r="C117" t="n">
-        <v>-13166811</v>
+        <v>-13166813</v>
       </c>
       <c r="D117" t="n">
         <v>-74256778</v>
